--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>723468.00</t>
+          <t>761218.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5010888.85</t>
+          <t>5035552.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3358517.70</t>
+          <t>3400017.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1446823.51</t>
+          <t>1454276.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>591942.82</t>
+          <t>630936.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2068989.70</t>
+          <t>2158901.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1253148.88</t>
+          <t>1266148.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67163.21</t>
+          <t>82826.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1688508.99</t>
+          <t>1712826.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3168677.18</t>
+          <t>3237900.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2617012.56</t>
+          <t>2660305.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1429564.71</t>
+          <t>1439564.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>100156.00</t>
+          <t>108330.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>159236.00</t>
+          <t>164336.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>734736.81</t>
+          <t>762938.81</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>422429.00</t>
+          <t>432429.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>85500.00</t>
+          <t>99000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>290908.00</t>
+          <t>292908.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>280610.78</t>
+          <t>343940.78</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>762829.56</t>
+          <t>788377.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>585903.00</t>
+          <t>599903.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>72210.69</t>
+          <t>82210.69</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>177319.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,32 +2605,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>530389.84</t>
+          <t>181319.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4481971.06</t>
+          <t>530389.84</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3358801.74</t>
+          <t>4508757.06</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1307628.85</t>
+          <t>3408551.74</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>618659.61</t>
+          <t>1320728.85</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>83491.00</t>
+          <t>618659.61</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>132897.65</t>
+          <t>138491.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3579560.20</t>
+          <t>136897.65</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>23656523.46</t>
+          <t>3677757.20</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>18334223.98</t>
+          <t>24412254.81</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7804065.26</t>
+          <t>19032035.47</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3110864.97</t>
+          <t>8071490.96</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>835000.00</t>
+          <t>3264364.97</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1752580.94</t>
+          <t>835000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>639</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>103961.00</t>
+          <t>1791456.94</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>369476.16</t>
+          <t>103961.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>237886.21</t>
+          <t>369476.16</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>104876.00</t>
+          <t>237886.21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>104876.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>73714.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>633856.34</t>
+          <t>73714.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>341537.60</t>
+          <t>633856.34</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>131500.00</t>
+          <t>341537.60</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>46150.00</t>
+          <t>131500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>46150.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>355139.87</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2214726.93</t>
+          <t>355139.87</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1465499.13</t>
+          <t>2214726.93</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1012495.12</t>
+          <t>1465499.13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>410568.04</t>
+          <t>1012495.12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>138500.00</t>
+          <t>410568.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>138500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1151460.19</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4806664.33</t>
+          <t>1157157.19</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3329688.38</t>
+          <t>4827564.33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1652016.08</t>
+          <t>3336188.38</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>777799.94</t>
+          <t>1652016.08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>245000.00</t>
+          <t>777799.94</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>138400.00</t>
+          <t>245000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1368202.21</t>
+          <t>138400.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5720614.00</t>
+          <t>1501164.68</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3015834.92</t>
+          <t>6008833.31</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1696123.65</t>
+          <t>3329565.16</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>742375.00</t>
+          <t>1805954.53</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>155000.00</t>
+          <t>848250.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>279879.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,32 +4663,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>394325.29</t>
+          <t>285879.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2003097.17</t>
+          <t>394325.29</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1514594.12</t>
+          <t>2005097.17</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>777253.75</t>
+          <t>1514594.12</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>131945.62</t>
+          <t>777253.75</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>40260.00</t>
+          <t>131945.62</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4915,32 +4915,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1255073.68</t>
+          <t>40260.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6390119.76</t>
+          <t>1255073.68</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3922575.74</t>
+          <t>6398561.19</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2068709.73</t>
+          <t>3942575.74</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>796659.00</t>
+          <t>2088709.73</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>810159.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>243456.16</t>
+          <t>200000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,10 +5187,52 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>250456.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>601891.72</t>
+          <t>607791.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>762</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3237900.76</t>
+          <t>3269577.29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2660305.18</t>
+          <t>2662305.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>762938.81</t>
+          <t>806226.81</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>432429.00</t>
+          <t>477429.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>208095.14</t>
+          <t>308095.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>292908.00</t>
+          <t>313908.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3677757.20</t>
+          <t>3687757.20</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19032035.47</t>
+          <t>19048085.47</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8071490.96</t>
+          <t>8081490.96</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1255073.68</t>
+          <t>1277943.68</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6398561.19</t>
+          <t>6572255.16</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>661</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3942575.74</t>
+          <t>4103463.08</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2088709.73</t>
+          <t>2241621.73</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>810159.00</t>
+          <t>931840.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>254339.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
